--- a/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF4DB81-1EF8-4F75-AAE3-D20AD96826DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4263ED-183C-45E2-8FCC-78BF2A5866F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{B7FFDD65-2C3E-441F-A17D-F150C32B1160}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D023C68F-5BD7-40B7-BF8A-C2DB5C83430D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,6 +77,66 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -132,66 +192,6 @@
   </si>
   <si>
     <t>17,96%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
   </si>
   <si>
     <t>87,03%</t>
@@ -637,7 +637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C235975-225F-4B0F-B746-6FD3789F7150}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C1FA6-B381-424C-956F-6E1EC7749A35}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -892,10 +892,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="D7" s="7">
-        <v>179704</v>
+        <v>34982</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -907,10 +907,10 @@
         <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>134292</v>
+        <v>32400</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>17</v>
@@ -922,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="M7" s="7">
-        <v>377</v>
+        <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>313996</v>
+        <v>67382</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -943,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>26495</v>
+        <v>5502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>23</v>
@@ -958,10 +958,10 @@
         <v>25</v>
       </c>
       <c r="H8" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>26365</v>
+        <v>788</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>26</v>
@@ -973,10 +973,10 @@
         <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="N8" s="7">
-        <v>52860</v>
+        <v>6290</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -994,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>238</v>
+        <v>48</v>
       </c>
       <c r="D9" s="7">
-        <v>206199</v>
+        <v>40484</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>32</v>
@@ -1009,10 +1009,10 @@
         <v>32</v>
       </c>
       <c r="H9" s="7">
-        <v>213</v>
+        <v>44</v>
       </c>
       <c r="I9" s="7">
-        <v>160657</v>
+        <v>33188</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>32</v>
@@ -1024,10 +1024,10 @@
         <v>32</v>
       </c>
       <c r="M9" s="7">
-        <v>451</v>
+        <v>92</v>
       </c>
       <c r="N9" s="7">
-        <v>366856</v>
+        <v>73672</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -1047,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="D10" s="7">
-        <v>34982</v>
+        <v>179704</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
@@ -1062,10 +1062,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="I10" s="7">
-        <v>32400</v>
+        <v>134292</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>37</v>
@@ -1077,10 +1077,10 @@
         <v>39</v>
       </c>
       <c r="M10" s="7">
-        <v>84</v>
+        <v>377</v>
       </c>
       <c r="N10" s="7">
-        <v>67382</v>
+        <v>313996</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
@@ -1098,10 +1098,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>5502</v>
+        <v>26495</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>43</v>
@@ -1113,10 +1113,10 @@
         <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>788</v>
+        <v>26365</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>46</v>
@@ -1128,10 +1128,10 @@
         <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>6290</v>
+        <v>52860</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>49</v>
@@ -1149,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="D12" s="7">
-        <v>40484</v>
+        <v>206199</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>32</v>
@@ -1164,10 +1164,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7">
-        <v>33188</v>
+        <v>160657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>32</v>
@@ -1179,10 +1179,10 @@
         <v>32</v>
       </c>
       <c r="M12" s="7">
-        <v>92</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>73672</v>
+        <v>366856</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>32</v>

--- a/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE4263ED-183C-45E2-8FCC-78BF2A5866F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1130E08-44E7-49C0-A2D1-A110451DE2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D023C68F-5BD7-40B7-BF8A-C2DB5C83430D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA7BED1D-325A-4C35-A915-10D1FFD4A3E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
   </si>
@@ -65,187 +65,193 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>—%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -352,39 +358,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -436,7 +442,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -547,13 +553,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -562,6 +561,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -626,19 +632,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461C1FA6-B381-424C-956F-6E1EC7749A35}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D6F08F-CAD0-4BC9-8365-D833C5F313DE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -892,49 +918,43 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
-      </c>
-      <c r="D7" s="7">
-        <v>34982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
-      </c>
-      <c r="I7" s="7">
-        <v>32400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M7" s="7">
-        <v>84</v>
-      </c>
-      <c r="N7" s="7">
-        <v>67382</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -943,49 +963,43 @@
         <v>12</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>5502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>788</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M8" s="7">
-        <v>8</v>
-      </c>
-      <c r="N8" s="7">
-        <v>6290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -994,102 +1008,96 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>48</v>
-      </c>
-      <c r="D9" s="7">
-        <v>40484</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>33188</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" s="7"/>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M9" s="7">
-        <v>92</v>
-      </c>
-      <c r="N9" s="7">
-        <v>73672</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>179704</v>
+        <v>12097</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H10" s="7">
-        <v>172</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>134292</v>
+        <v>5426</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M10" s="7">
-        <v>377</v>
+        <v>25</v>
       </c>
       <c r="N10" s="7">
-        <v>313996</v>
+        <v>17523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,49 +1106,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="D11" s="7">
-        <v>26495</v>
+        <v>80399</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="H11" s="7">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="I11" s="7">
-        <v>26365</v>
+        <v>64649</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="N11" s="7">
-        <v>52860</v>
+        <v>145047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1149,102 +1157,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="D12" s="7">
-        <v>206199</v>
+        <v>92496</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="7">
-        <v>213</v>
+        <v>93</v>
       </c>
       <c r="I12" s="7">
-        <v>160657</v>
+        <v>70075</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M12" s="7">
-        <v>451</v>
+        <v>204</v>
       </c>
       <c r="N12" s="7">
-        <v>366856</v>
+        <v>162570</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="D13" s="7">
-        <v>214685</v>
+        <v>19900</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H13" s="7">
-        <v>215</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>166693</v>
+        <v>21727</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="7">
         <v>57</v>
       </c>
-      <c r="M13" s="7">
-        <v>461</v>
-      </c>
       <c r="N13" s="7">
-        <v>381378</v>
+        <v>41627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1253,49 +1261,49 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7">
-        <v>31997</v>
+        <v>134287</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="I14" s="7">
-        <v>27153</v>
+        <v>102044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="M14" s="7">
-        <v>82</v>
+        <v>282</v>
       </c>
       <c r="N14" s="7">
-        <v>59150</v>
+        <v>236330</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,55 +1312,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>175</v>
+      </c>
+      <c r="D15" s="7">
+        <v>154187</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="7">
+        <v>164</v>
+      </c>
+      <c r="I15" s="7">
+        <v>123771</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="7">
+        <v>339</v>
+      </c>
+      <c r="N15" s="7">
+        <v>277957</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31997</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="7">
+        <v>42</v>
+      </c>
+      <c r="I16" s="7">
+        <v>27153</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="7">
+        <v>82</v>
+      </c>
+      <c r="N16" s="7">
+        <v>59150</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="7">
+        <v>246</v>
+      </c>
+      <c r="D17" s="7">
+        <v>214685</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>215</v>
+      </c>
+      <c r="I17" s="7">
+        <v>166693</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="7">
+        <v>461</v>
+      </c>
+      <c r="N17" s="7">
+        <v>381378</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>286</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>246682</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="7">
         <v>257</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>193846</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="7">
         <v>543</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>440528</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>32</v>
+      <c r="O18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1130E08-44E7-49C0-A2D1-A110451DE2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA8C981-E009-4542-AEF0-DE135FC77476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA7BED1D-325A-4C35-A915-10D1FFD4A3E7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A13251A6-FC11-4564-A9DF-B6574F6ED475}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
   <si>
     <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
   </si>
@@ -86,55 +86,55 @@
     <t>13,08%</t>
   </si>
   <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
   </si>
   <si>
     <t>100%</t>
@@ -146,109 +146,103 @@
     <t>12,91%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
   </si>
   <si>
     <t>14,98%</t>
   </si>
   <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
   </si>
   <si>
     <t>87,09%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>82,45%</t>
   </si>
   <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>85,02%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>12,97%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>16,66%</t>
   </si>
   <si>
     <t>87,03%</t>
   </si>
   <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>83,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -663,7 +657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D6F08F-CAD0-4BC9-8365-D833C5F313DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C37C8-2086-4B61-8B3A-381BF2E235B1}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1404,10 +1398,10 @@
         <v>59</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1422,13 +1416,13 @@
         <v>214685</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -1437,13 +1431,13 @@
         <v>166693</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>461</v>
@@ -1452,13 +1446,13 @@
         <v>381378</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1514,7 +1508,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C30_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AA8C981-E009-4542-AEF0-DE135FC77476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F96574BE-D419-48B3-ADE7-F5D8A52655BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A13251A6-FC11-4564-A9DF-B6574F6ED475}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{676CB274-C503-4D3E-B947-F4083857ACDA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="70">
-  <si>
-    <t>Menores según frecuencia de situaciones de cyberbulling en tu colegio en 2023 (Tasa respuesta: 28,28%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="132">
+  <si>
+    <t>Menores según si se han producido situaciones de cyberbulling en su colegio en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,13 +68,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>Sí</t>
+    <t>Siempre</t>
   </si>
   <si>
     <t>—%</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>Nunca</t>
   </si>
   <si>
     <t>3-7</t>
@@ -83,58 +92,97 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,106 +191,244 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -657,8 +843,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C37C8-2086-4B61-8B3A-381BF2E235B1}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698285D6-1D0B-4176-8E27-1035A7BF143D}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -862,7 +1048,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -905,11 +1091,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -954,7 +1138,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1043,55 +1227,49 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7">
-        <v>12097</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5426</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>25</v>
-      </c>
-      <c r="N10" s="7">
-        <v>17523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1100,204 +1278,178 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>95</v>
-      </c>
-      <c r="D11" s="7">
-        <v>80399</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>84</v>
-      </c>
-      <c r="I11" s="7">
-        <v>64649</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>179</v>
-      </c>
-      <c r="N11" s="7">
-        <v>145047</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
-      </c>
-      <c r="D12" s="7">
-        <v>92496</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>93</v>
-      </c>
-      <c r="I12" s="7">
-        <v>70075</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>204</v>
-      </c>
-      <c r="N12" s="7">
-        <v>162570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7">
-        <v>19900</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>33</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21727</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
-      </c>
-      <c r="N13" s="7">
-        <v>41627</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>151</v>
-      </c>
-      <c r="D14" s="7">
-        <v>134287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>131</v>
-      </c>
-      <c r="I14" s="7">
-        <v>102044</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>282</v>
-      </c>
-      <c r="N14" s="7">
-        <v>236330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1306,102 +1458,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>175</v>
-      </c>
-      <c r="D15" s="7">
-        <v>154187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>164</v>
-      </c>
-      <c r="I15" s="7">
-        <v>123771</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>339</v>
-      </c>
-      <c r="N15" s="7">
-        <v>277957</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>31997</v>
+        <v>39448</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>27153</v>
+        <v>59585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="N16" s="7">
-        <v>59150</v>
+        <v>99033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,118 +1556,887 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>246</v>
+        <v>39</v>
       </c>
       <c r="D17" s="7">
-        <v>214685</v>
+        <v>27671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>215</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>166693</v>
+        <v>31141</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>461</v>
+        <v>78</v>
       </c>
       <c r="N17" s="7">
-        <v>381378</v>
+        <v>58812</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7">
+        <v>806</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="7">
+        <v>10</v>
+      </c>
+      <c r="I18" s="7">
+        <v>7775</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M18" s="7">
+        <v>11</v>
+      </c>
+      <c r="N18" s="7">
+        <v>8582</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="7">
-        <v>286</v>
-      </c>
-      <c r="D18" s="7">
-        <v>246682</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="7">
-        <v>257</v>
-      </c>
-      <c r="I18" s="7">
-        <v>193846</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="7">
-        <v>543</v>
-      </c>
-      <c r="N18" s="7">
-        <v>440528</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C21" s="7">
+        <v>95</v>
+      </c>
+      <c r="D21" s="7">
+        <v>67925</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" s="7">
+        <v>118</v>
+      </c>
+      <c r="I21" s="7">
+        <v>98502</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="7">
+        <v>213</v>
+      </c>
+      <c r="N21" s="7">
+        <v>166427</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>83</v>
+      </c>
+      <c r="D22" s="7">
+        <v>57845</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="7">
+        <v>85</v>
+      </c>
+      <c r="I22" s="7">
+        <v>81351</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="7">
+        <v>168</v>
+      </c>
+      <c r="N22" s="7">
+        <v>139196</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>81</v>
+      </c>
+      <c r="D23" s="7">
+        <v>77534</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="7">
+        <v>82</v>
+      </c>
+      <c r="I23" s="7">
+        <v>71472</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="7">
+        <v>163</v>
+      </c>
+      <c r="N23" s="7">
+        <v>149006</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="7">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6014</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>69</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="7">
+        <v>17</v>
+      </c>
+      <c r="I24" s="7">
+        <v>15808</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="7">
+        <v>27</v>
+      </c>
+      <c r="N24" s="7">
+        <v>21821</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>3555</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4709</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7">
+        <v>596</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1</v>
+      </c>
+      <c r="N26" s="7">
+        <v>596</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>175</v>
+      </c>
+      <c r="D27" s="7">
+        <v>142547</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H27" s="7">
+        <v>188</v>
+      </c>
+      <c r="I27" s="7">
+        <v>172783</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="7">
+        <v>363</v>
+      </c>
+      <c r="N27" s="7">
+        <v>315329</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>138</v>
+      </c>
+      <c r="D28" s="7">
+        <v>97293</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="7">
+        <v>154</v>
+      </c>
+      <c r="I28" s="7">
+        <v>140937</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="7">
+        <v>292</v>
+      </c>
+      <c r="N28" s="7">
+        <v>238229</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>120</v>
+      </c>
+      <c r="D29" s="7">
+        <v>105205</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="7">
+        <v>121</v>
+      </c>
+      <c r="I29" s="7">
+        <v>102614</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M29" s="7">
+        <v>241</v>
+      </c>
+      <c r="N29" s="7">
+        <v>207819</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" s="7">
+        <v>6820</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H30" s="7">
+        <v>27</v>
+      </c>
+      <c r="I30" s="7">
+        <v>23583</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M30" s="7">
+        <v>38</v>
+      </c>
+      <c r="N30" s="7">
+        <v>30403</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1154</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="7">
+        <v>3</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3555</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M31" s="7">
+        <v>4</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4709</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>596</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>596</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
+        <v>270</v>
+      </c>
+      <c r="D33" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="7">
+        <v>306</v>
+      </c>
+      <c r="I33" s="7">
+        <v>271285</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="7">
+        <v>576</v>
+      </c>
+      <c r="N33" s="7">
+        <v>481757</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
